--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5233</x:v>
+        <x:v>5232</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2667</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7900</x:v>
+        <x:v>7899</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7411</x:v>
+        <x:v>7412</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6471</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13882</x:v>
+        <x:v>13883</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -480,10 +480,10 @@
         <x:v>5489</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4940</x:v>
+        <x:v>4945</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10429</x:v>
+        <x:v>10434</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8902</x:v>
+        <x:v>8903</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6884</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15786</x:v>
+        <x:v>15787</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5489</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4945</x:v>
+        <x:v>4947</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10434</x:v>
+        <x:v>10436</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13933</x:v>
+        <x:v>13931</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8402</x:v>
+        <x:v>8407</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22335</x:v>
+        <x:v>22338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1868</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1850</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3718</x:v>
+        <x:v>3717</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6989</x:v>
+        <x:v>6988</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12789</x:v>
+        <x:v>12788</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13931</x:v>
+        <x:v>13932</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8407</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22338</x:v>
+        <x:v>22339</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6988</x:v>
+        <x:v>6989</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12788</x:v>
+        <x:v>12789</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -519,10 +519,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1868</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1850</x:v>
+        <x:v>1849</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>3717</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13932</x:v>
+        <x:v>13931</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8407</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22339</x:v>
+        <x:v>22338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3389</x:v>
+        <x:v>3390</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3303</x:v>
+        <x:v>3304</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6692</x:v>
+        <x:v>6694</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5232</x:v>
+        <x:v>5231</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2667</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7899</x:v>
+        <x:v>7898</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6989</x:v>
+        <x:v>6990</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12789</x:v>
+        <x:v>12790</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5489</x:v>
+        <x:v>5492</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4947</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10436</x:v>
+        <x:v>10439</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13932</x:v>
+        <x:v>13931</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8407</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22339</x:v>
+        <x:v>22338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5231</x:v>
+        <x:v>5230</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2667</x:v>
+        <x:v>2668</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>7898</x:v>
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3390</x:v>
+        <x:v>3389</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3304</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6694</x:v>
+        <x:v>6693</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6990</x:v>
+        <x:v>6989</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12790</x:v>
+        <x:v>12789</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1868</x:v>
+        <x:v>1869</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1849</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3717</x:v>
+        <x:v>3718</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6989</x:v>
+        <x:v>6991</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12789</x:v>
+        <x:v>12791</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5492</x:v>
+        <x:v>5493</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4947</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10439</x:v>
+        <x:v>10440</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13931</x:v>
+        <x:v>13936</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8407</x:v>
+        <x:v>8408</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22338</x:v>
+        <x:v>22344</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1869</x:v>
+        <x:v>1867</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1849</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3718</x:v>
+        <x:v>3716</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7412</x:v>
+        <x:v>7408</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6471</x:v>
+        <x:v>6470</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13883</x:v>
+        <x:v>13878</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8903</x:v>
+        <x:v>8904</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6884</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15787</x:v>
+        <x:v>15788</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5493</x:v>
+        <x:v>5492</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4947</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10440</x:v>
+        <x:v>10439</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,10 +491,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13936</x:v>
+        <x:v>13935</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8408</x:v>
+        <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>22344</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -438,10 +438,10 @@
         <x:v>7408</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6470</x:v>
+        <x:v>6469</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13878</x:v>
+        <x:v>13877</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6991</x:v>
+        <x:v>6992</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12791</x:v>
+        <x:v>12792</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>4331</x:v>
+        <x:v>4333</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>4319</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>8650</x:v>
+        <x:v>8652</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3389</x:v>
+        <x:v>3388</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3304</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6693</x:v>
+        <x:v>6692</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5492</x:v>
+        <x:v>5493</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4947</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10439</x:v>
+        <x:v>10440</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13935</x:v>
+        <x:v>13936</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22344</x:v>
+        <x:v>22345</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8904</x:v>
+        <x:v>8905</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6884</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15788</x:v>
+        <x:v>15789</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13936</x:v>
+        <x:v>13937</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22345</x:v>
+        <x:v>22346</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6992</x:v>
+        <x:v>6976</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5800</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12792</x:v>
+        <x:v>12776</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5230</x:v>
+        <x:v>5231</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2668</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7898</x:v>
+        <x:v>7899</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,10 +477,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5493</x:v>
+        <x:v>5492</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4947</x:v>
+        <x:v>4948</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>10440</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -463,10 +463,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5231</x:v>
+        <x:v>5230</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
-        <x:v>2668</x:v>
+        <x:v>2669</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
         <x:v>7899</x:v>
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5492</x:v>
+        <x:v>5494</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4948</x:v>
+        <x:v>4956</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10440</x:v>
+        <x:v>10450</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13937</x:v>
+        <x:v>13938</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22346</x:v>
+        <x:v>22347</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -480,10 +480,10 @@
         <x:v>5494</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4956</x:v>
+        <x:v>4964</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10450</x:v>
+        <x:v>10458</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5494</x:v>
+        <x:v>5400</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4964</x:v>
+        <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10458</x:v>
+        <x:v>10361</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3388</x:v>
+        <x:v>3386</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3304</x:v>
+        <x:v>3302</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6692</x:v>
+        <x:v>6688</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5230</x:v>
+        <x:v>5231</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2669</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>7899</x:v>
+        <x:v>7900</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,10 +449,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8905</x:v>
+        <x:v>8904</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6884</x:v>
+        <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>15789</x:v>
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5400</x:v>
+        <x:v>5401</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10361</x:v>
+        <x:v>10362</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13938</x:v>
+        <x:v>13937</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22347</x:v>
+        <x:v>22346</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5401</x:v>
+        <x:v>5400</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10362</x:v>
+        <x:v>10361</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13937</x:v>
+        <x:v>13934</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22346</x:v>
+        <x:v>22343</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8904</x:v>
+        <x:v>8903</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15789</x:v>
+        <x:v>15788</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5400</x:v>
+        <x:v>5399</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10361</x:v>
+        <x:v>10360</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6976</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5800</x:v>
+        <x:v>5801</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12776</x:v>
+        <x:v>12777</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5399</x:v>
+        <x:v>5398</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10360</x:v>
+        <x:v>10359</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>1867</x:v>
+        <x:v>1869</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>1849</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3716</x:v>
+        <x:v>3718</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13934</x:v>
+        <x:v>13935</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8409</x:v>
+        <x:v>8410</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22343</x:v>
+        <x:v>22345</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8903</x:v>
+        <x:v>8902</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15788</x:v>
+        <x:v>15787</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8902</x:v>
+        <x:v>8900</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15787</x:v>
+        <x:v>15785</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13935</x:v>
+        <x:v>13937</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>8410</x:v>
+        <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22345</x:v>
+        <x:v>22346</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8900</x:v>
+        <x:v>8901</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15785</x:v>
+        <x:v>15786</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13937</x:v>
+        <x:v>13933</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22346</x:v>
+        <x:v>22342</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -522,10 +522,10 @@
         <x:v>1869</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>1849</x:v>
+        <x:v>1848</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>3718</x:v>
+        <x:v>3717</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8901</x:v>
+        <x:v>8899</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15786</x:v>
+        <x:v>15784</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5398</x:v>
+        <x:v>5399</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4961</x:v>
+        <x:v>4959</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10359</x:v>
+        <x:v>10358</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3386</x:v>
+        <x:v>3385</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3302</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6688</x:v>
+        <x:v>6687</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8899</x:v>
+        <x:v>8900</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6885</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15784</x:v>
+        <x:v>15785</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5399</x:v>
+        <x:v>5401</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4959</x:v>
+        <x:v>4958</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10358</x:v>
+        <x:v>10359</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -480,10 +480,10 @@
         <x:v>5401</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4958</x:v>
+        <x:v>4959</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10359</x:v>
+        <x:v>10360</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3385</x:v>
+        <x:v>3386</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3302</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6687</x:v>
+        <x:v>6688</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8900</x:v>
+        <x:v>8896</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6885</x:v>
+        <x:v>6886</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15785</x:v>
+        <x:v>15782</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7408</x:v>
+        <x:v>7407</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6469</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13877</x:v>
+        <x:v>13876</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5401</x:v>
+        <x:v>5400</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4959</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10360</x:v>
+        <x:v>10359</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8896</x:v>
+        <x:v>8895</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6886</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15782</x:v>
+        <x:v>15781</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13933</x:v>
+        <x:v>13930</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22342</x:v>
+        <x:v>22339</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>4333</x:v>
+        <x:v>4336</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>4319</x:v>
+        <x:v>4321</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>8652</x:v>
+        <x:v>8657</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5400</x:v>
+        <x:v>5451</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>4959</x:v>
+        <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10359</x:v>
+        <x:v>10412</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8895</x:v>
+        <x:v>8892</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6886</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15781</x:v>
+        <x:v>15778</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13930</x:v>
+        <x:v>13929</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22339</x:v>
+        <x:v>22338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7407</x:v>
+        <x:v>7410</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6469</x:v>
+        <x:v>6470</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13876</x:v>
+        <x:v>13880</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8892</x:v>
+        <x:v>8893</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6886</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15778</x:v>
+        <x:v>15779</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3386</x:v>
+        <x:v>3387</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3302</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6688</x:v>
+        <x:v>6689</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8893</x:v>
+        <x:v>8892</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6886</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15779</x:v>
+        <x:v>15778</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8892</x:v>
+        <x:v>8893</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6886</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>15778</x:v>
+        <x:v>15779</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13929</x:v>
+        <x:v>13928</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22338</x:v>
+        <x:v>22337</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6976</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5801</x:v>
+        <x:v>5802</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12777</x:v>
+        <x:v>12778</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13928</x:v>
+        <x:v>13927</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22337</x:v>
+        <x:v>22336</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13927</x:v>
+        <x:v>13929</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22336</x:v>
+        <x:v>22338</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7410</x:v>
+        <x:v>7412</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6470</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13880</x:v>
+        <x:v>13882</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7412</x:v>
+        <x:v>7413</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6470</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13882</x:v>
+        <x:v>13883</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5451</x:v>
+        <x:v>5452</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>4961</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10412</x:v>
+        <x:v>10413</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>13929</x:v>
+        <x:v>13930</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>8409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>22338</x:v>
+        <x:v>22339</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Arrests by Judicial Districts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Arrests by Judicial Districts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Judicial District</x:t>
   </x:si>
@@ -26,6 +26,126 @@
   </x:si>
   <x:si>
     <x:t>Grand Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6470</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8888</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15774</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2669</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4961</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13922</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8408</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22330</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3389</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3303</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3717</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6979</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4336</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8657</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +154,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -84,13 +204,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -99,7 +219,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -107,7 +227,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -431,143 +551,143 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="n">
-        <x:v>7413</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>6470</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>13883</x:v>
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="n">
-        <x:v>8893</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>6886</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>15779</x:v>
+      <x:c r="D3" s="1" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="n">
-        <x:v>5231</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>2669</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>7900</x:v>
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="n">
-        <x:v>5452</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>4961</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>10413</x:v>
+      <x:c r="A5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="n">
-        <x:v>13930</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>8409</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>22339</x:v>
+      <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="n">
-        <x:v>3387</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>3302</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>6689</x:v>
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="n">
-        <x:v>1869</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>1848</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>3717</x:v>
+      <x:c r="A8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="n">
-        <x:v>6976</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>5802</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>12778</x:v>
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="n">
-        <x:v>1624</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>1195</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>2819</x:v>
+      <x:c r="A10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="n">
-        <x:v>4336</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>4321</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>8657</x:v>
+      <x:c r="A11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8888</x:t>
+    <x:t>8889</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15774</x:t>
+    <x:t>15775</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13922</x:t>
+    <x:t>13917</x:t>
   </x:si>
   <x:si>
     <x:t>8408</x:t>
   </x:si>
   <x:si>
-    <x:t>22330</x:t>
+    <x:t>22325</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8889</x:t>
+    <x:t>8890</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15775</x:t>
+    <x:t>15776</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -103,25 +103,25 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>1869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3717</x:t>
+    <x:t>1881</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1837</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3718</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6979</x:t>
+    <x:t>6978</x:t>
   </x:si>
   <x:si>
     <x:t>5802</x:t>
   </x:si>
   <x:si>
-    <x:t>12781</x:t>
+    <x:t>12780</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8408</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22325</x:t>
+    <x:t>13915</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22324</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -130,10 +130,10 @@
     <x:t>1624</x:t>
   </x:si>
   <x:si>
-    <x:t>1195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2819</x:t>
+    <x:t>1196</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2820</x:t>
   </x:si>
   <x:si>
     <x:t>9</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7413</x:t>
+    <x:t>7414</x:t>
   </x:si>
   <x:si>
     <x:t>6470</x:t>
   </x:si>
   <x:si>
-    <x:t>13883</x:t>
+    <x:t>13884</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13915</x:t>
+    <x:t>13913</x:t>
   </x:si>
   <x:si>
     <x:t>8409</x:t>
   </x:si>
   <x:si>
-    <x:t>22324</x:t>
+    <x:t>22322</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13913</x:t>
+    <x:t>13914</x:t>
   </x:si>
   <x:si>
     <x:t>8409</x:t>
   </x:si>
   <x:si>
-    <x:t>22322</x:t>
+    <x:t>22323</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8890</x:t>
+    <x:t>8891</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15776</x:t>
+    <x:t>15777</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13914</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22323</x:t>
+    <x:t>13912</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22322</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -67,13 +67,13 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>5451</x:t>
+    <x:t>5449</x:t>
   </x:si>
   <x:si>
     <x:t>4961</x:t>
   </x:si>
   <x:si>
-    <x:t>10412</x:t>
+    <x:t>10410</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7414</x:t>
+    <x:t>7412</x:t>
   </x:si>
   <x:si>
     <x:t>6470</x:t>
   </x:si>
   <x:si>
-    <x:t>13884</x:t>
+    <x:t>13882</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8891</x:t>
+    <x:t>8890</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15777</x:t>
+    <x:t>15776</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6978</x:t>
+    <x:t>6977</x:t>
   </x:si>
   <x:si>
     <x:t>5802</x:t>
   </x:si>
   <x:si>
-    <x:t>12780</x:t>
+    <x:t>12779</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8890</x:t>
+    <x:t>8891</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15776</x:t>
+    <x:t>15777</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -34,10 +34,10 @@
     <x:t>7412</x:t>
   </x:si>
   <x:si>
-    <x:t>6470</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13882</x:t>
+    <x:t>6469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13881</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13912</x:t>
+    <x:t>13911</x:t>
   </x:si>
   <x:si>
     <x:t>8410</x:t>
   </x:si>
   <x:si>
-    <x:t>22322</x:t>
+    <x:t>22321</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13911</x:t>
+    <x:t>13912</x:t>
   </x:si>
   <x:si>
     <x:t>8410</x:t>
   </x:si>
   <x:si>
-    <x:t>22321</x:t>
+    <x:t>22322</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8891</x:t>
+    <x:t>8890</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15777</x:t>
+    <x:t>15776</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,10 +79,10 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13912</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8410</x:t>
+    <x:t>13911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8411</x:t>
   </x:si>
   <x:si>
     <x:t>22322</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8890</x:t>
+    <x:t>8887</x:t>
   </x:si>
   <x:si>
     <x:t>6886</x:t>
   </x:si>
   <x:si>
-    <x:t>15776</x:t>
+    <x:t>15773</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13911</x:t>
+    <x:t>13910</x:t>
   </x:si>
   <x:si>
     <x:t>8411</x:t>
   </x:si>
   <x:si>
-    <x:t>22322</x:t>
+    <x:t>22321</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -55,10 +55,10 @@
     <x:t>2</x:t>
   </x:si>
   <x:si>
-    <x:t>5231</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2669</x:t>
+    <x:t>5230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2670</x:t>
   </x:si>
   <x:si>
     <x:t>7900</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -79,25 +79,25 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>13910</x:t>
+    <x:t>13911</x:t>
   </x:si>
   <x:si>
     <x:t>8411</x:t>
   </x:si>
   <x:si>
-    <x:t>22321</x:t>
+    <x:t>22322</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3389</x:t>
+    <x:t>3390</x:t>
   </x:si>
   <x:si>
     <x:t>3303</x:t>
   </x:si>
   <x:si>
-    <x:t>6692</x:t>
+    <x:t>6693</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6977</x:t>
+    <x:t>6978</x:t>
   </x:si>
   <x:si>
     <x:t>5802</x:t>
   </x:si>
   <x:si>
-    <x:t>12779</x:t>
+    <x:t>12780</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2021.xlsx
@@ -43,10 +43,10 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8887</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6886</x:t>
+    <x:t>8886</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6887</x:t>
   </x:si>
   <x:si>
     <x:t>15773</x:t>
